--- a/Team-Data/2013-14/1-2-2013-14.xlsx
+++ b/Team-Data/2013-14/1-2-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -762,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -777,22 +844,22 @@
         <v>7</v>
       </c>
       <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
         <v>20</v>
       </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
@@ -804,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.406</v>
+        <v>0.419</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
@@ -887,55 +954,55 @@
         <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U3" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="V3" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W3" t="n">
         <v>6.8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG3" t="n">
         <v>20</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -947,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -956,49 +1023,49 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
         <v>18</v>
       </c>
       <c r="AT3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU3" t="n">
         <v>30</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>26</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.344</v>
+        <v>0.323</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.444</v>
@@ -1057,16 +1124,16 @@
         <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N4" t="n">
         <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P4" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q4" t="n">
         <v>0.759</v>
@@ -1075,52 +1142,52 @@
         <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T4" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y4" t="n">
-        <v>4</v>
-      </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
         <v>96.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.4</v>
+        <v>-5.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1138,22 +1205,22 @@
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1162,25 +1229,25 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
         <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
         <v>34.5</v>
       </c>
       <c r="J5" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.42</v>
@@ -1242,67 +1309,67 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.726</v>
       </c>
       <c r="R5" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S5" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1320,25 +1387,25 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="n">
         <v>13</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1362,10 +1429,10 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -1394,67 +1461,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.419</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I6" t="n">
         <v>33.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M6" t="n">
         <v>16.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
         <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V6" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W6" t="n">
         <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
         <v>6.6</v>
@@ -1463,28 +1530,28 @@
         <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
         <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1502,22 +1569,22 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.344</v>
+        <v>0.323</v>
       </c>
       <c r="H7" t="n">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O7" t="n">
         <v>16.1</v>
@@ -1615,31 +1682,31 @@
         <v>21.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.1</v>
+        <v>43.6</v>
       </c>
       <c r="U7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
         <v>19.3</v>
@@ -1648,31 +1715,31 @@
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1684,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1696,28 +1763,28 @@
         <v>18</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
         <v>27</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,13 +1921,13 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1869,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1890,13 +1957,13 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,10 +1972,10 @@
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2048,16 +2115,16 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2066,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2081,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>22</v>
@@ -2093,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2267,25 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2260,16 +2327,16 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.618</v>
+        <v>0.606</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J11" t="n">
         <v>84.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="M11" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.397</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
         <v>15.7</v>
@@ -2343,31 +2410,31 @@
         <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.729</v>
+        <v>0.725</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="n">
         <v>35.4</v>
       </c>
       <c r="T11" t="n">
-        <v>46.4</v>
+        <v>46.6</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z11" t="n">
         <v>22.6</v>
@@ -2376,34 +2443,34 @@
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>102.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2415,16 +2482,16 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2442,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2454,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2573,10 +2640,10 @@
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,16 +2697,16 @@
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -2767,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2782,19 +2849,19 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -2928,28 +2995,28 @@
         <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2973,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2988,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
         <v>20</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -3125,7 +3192,7 @@
         <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
@@ -3146,19 +3213,19 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
@@ -3173,19 +3240,19 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.452</v>
+        <v>0.433</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
         <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.756</v>
       </c>
       <c r="R16" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W16" t="n">
         <v>7.5</v>
@@ -3280,40 +3347,40 @@
         <v>5.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE16" t="n">
         <v>19</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO16" t="n">
         <v>22</v>
       </c>
-      <c r="AO16" t="n">
-        <v>25</v>
-      </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
@@ -3358,16 +3425,16 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB16" t="n">
         <v>26</v>
       </c>
-      <c r="BB16" t="n">
-        <v>25</v>
-      </c>
       <c r="BC16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,40 +3481,40 @@
         <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.511</v>
       </c>
       <c r="L17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R17" t="n">
         <v>6.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="U17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="V17" t="n">
         <v>15.3</v>
@@ -3456,7 +3523,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
         <v>2.8</v>
@@ -3465,22 +3532,22 @@
         <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.8</v>
+        <v>104.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3507,34 +3574,34 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="H18" t="n">
         <v>49.1</v>
@@ -3596,43 +3663,43 @@
         <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P18" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q18" t="n">
         <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S18" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
         <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
@@ -3647,34 +3714,34 @@
         <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC18" t="n">
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3686,31 +3753,31 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>23</v>
@@ -3725,10 +3792,10 @@
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3850,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>11</v>
@@ -3886,7 +3953,7 @@
         <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4056,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4065,10 +4132,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4077,13 +4144,13 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>23</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -4124,52 +4191,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.323</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O21" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R21" t="n">
         <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T21" t="n">
         <v>39.1</v>
@@ -4193,37 +4260,37 @@
         <v>22.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.3</v>
+        <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4265,19 +4332,19 @@
         <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
         <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.781</v>
+        <v>0.806</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
         <v>6.8</v>
@@ -4336,31 +4403,31 @@
         <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P22" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S22" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="T22" t="n">
-        <v>47.1</v>
+        <v>47.5</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.8</v>
@@ -4372,37 +4439,37 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.3</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4414,13 +4481,13 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
@@ -4447,16 +4514,16 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -4488,67 +4555,67 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H23" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L23" t="n">
         <v>7.4</v>
       </c>
       <c r="M23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.748</v>
+        <v>0.753</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
@@ -4557,67 +4624,67 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR23" t="n">
         <v>27</v>
       </c>
-      <c r="AP23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ23" t="n">
+      <c r="AS23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU23" t="n">
         <v>20</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>19</v>
       </c>
       <c r="AV23" t="n">
         <v>16</v>
@@ -4626,19 +4693,19 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -4670,94 +4737,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.344</v>
+        <v>0.323</v>
       </c>
       <c r="H24" t="n">
         <v>49.1</v>
       </c>
       <c r="I24" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J24" t="n">
         <v>89.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
         <v>7.5</v>
       </c>
       <c r="M24" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="P24" t="n">
         <v>22.8</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="O24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>23</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0.716</v>
+        <v>0.714</v>
       </c>
       <c r="R24" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S24" t="n">
         <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U24" t="n">
         <v>23.1</v>
       </c>
       <c r="V24" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>103.3</v>
+        <v>103</v>
       </c>
       <c r="AC24" t="n">
-        <v>-7.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="n">
         <v>3</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4790,40 +4857,40 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
         <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
         <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.613</v>
+        <v>0.633</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,46 +4937,46 @@
         <v>38.3</v>
       </c>
       <c r="J25" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.739</v>
+        <v>0.743</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>5.4</v>
@@ -4918,19 +4985,19 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.3</v>
+        <v>103.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4939,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4948,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
         <v>9</v>
@@ -4957,34 +5024,34 @@
         <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
       </c>
       <c r="AP25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT25" t="n">
         <v>14</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>13</v>
-      </c>
       <c r="AU25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -4993,19 +5060,19 @@
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -5034,94 +5101,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.788</v>
+        <v>0.781</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="J26" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.405</v>
+        <v>0.396</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T26" t="n">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="U26" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>109</v>
+        <v>108.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
         <v>13</v>
@@ -5133,22 +5200,22 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
       </c>
       <c r="AM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="n">
         <v>2</v>
       </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5160,10 +5227,10 @@
         <v>8</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -5216,106 +5283,106 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S27" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T27" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U27" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>20</v>
       </c>
       <c r="AL27" t="n">
         <v>22</v>
@@ -5324,16 +5391,16 @@
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5342,13 +5409,13 @@
         <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW27" t="n">
         <v>12</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
         <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.758</v>
+        <v>0.781</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K28" t="n">
         <v>0.485</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.399</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="P28" t="n">
         <v>18.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
         <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V28" t="n">
         <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
@@ -5500,13 +5567,13 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>29</v>
@@ -5515,16 +5582,16 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5676,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5691,10 +5758,10 @@
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
@@ -5706,16 +5773,16 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.314</v>
+        <v>0.294</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5780,7 +5847,7 @@
         <v>35.4</v>
       </c>
       <c r="J30" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.431</v>
@@ -5789,37 +5856,37 @@
         <v>6.4</v>
       </c>
       <c r="M30" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X30" t="n">
         <v>5</v>
@@ -5828,16 +5895,16 @@
         <v>5.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA30" t="n">
         <v>20.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7.7</v>
+        <v>-8.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5849,7 +5916,7 @@
         <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,34 +5937,34 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP30" t="n">
         <v>25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -5906,16 +5973,16 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>10</v>
@@ -6058,19 +6125,19 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6082,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>5</v>
@@ -6091,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-2-2013-14</t>
+          <t>2014-01-02</t>
         </is>
       </c>
     </row>
